--- a/scripts/data/WroclawData.xlsx
+++ b/scripts/data/WroclawData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatarzynaBocian(2399\Desktop\BDA\masterThesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatarzynaBocian(2399\Desktop\BDA\masterThesis\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0621F347-239E-41AE-8838-3EBC63F1BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D40CA-A751-4280-BE8A-77F108048C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="2628" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-8715" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="33">
   <si>
     <t>LPG</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Buildings</t>
@@ -337,51 +334,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 6" xfId="1" xr:uid="{67B258C2-75CE-428B-9CB9-E59E28F7BCDB}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -1339,34 +1292,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9D6C48-DB33-4B0C-91D9-6F05058F2BC4}" name="Table1" displayName="Table1" ref="A1:T109" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" headerRowCellStyle="Normalny 6">
-  <autoFilter ref="A1:T109" xr:uid="{AB9D6C48-DB33-4B0C-91D9-6F05058F2BC4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9D6C48-DB33-4B0C-91D9-6F05058F2BC4}" name="Table1" displayName="Table1" ref="A1:S109" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" headerRowCellStyle="Normalny 6">
+  <autoFilter ref="A1:S109" xr:uid="{AB9D6C48-DB33-4B0C-91D9-6F05058F2BC4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S109">
     <sortCondition ref="C1:C109"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{261F110C-22A9-4D39-A42B-41118E257A2E}" name="Sector" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{AD7B012C-81C9-4E0D-99BC-82022917024C}" name="Subsector" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{EAF1E991-C3E3-42FB-A84B-45684D439B73}" name="Year" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A3B8CEB2-DB6E-4F43-8BBC-34129BBC978E}" name="Electricity" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A6C08ADB-2DD5-4F7A-8269-AA10D654F706}" name="HeatAndCooling" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{B78948CE-B06B-4D3B-86B8-0C0DF61A5611}" name="NaturalGas" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{7CBDEA58-0D44-474F-AA13-729B62F546A9}" name="LPG" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{5F53BF7D-481A-4AFA-9AA3-4FB3F29D900E}" name="HeatingOil" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{22ED311C-09AA-455C-B2F9-D6A622F2B36B}" name="Diesel" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{1C82183D-CB7D-47E4-B7CC-AFDFEAD03466}" name="Gasoline" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{D0AE6067-46EB-4023-8280-99A4F9258389}" name="Lignite" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{44B17059-B493-4347-BE8E-21DC8A9B1D41}" name="HardCoal" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{781A2EC8-5515-4E05-A94D-F6A6B81E5659}" name="OtherFossilFuels" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{68F53842-BD7B-4DF3-929D-F14C7929AE33}" name="VegetableOil" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{69D8DF55-967B-4D7E-B7DB-DC3B805CEC00}" name="Biofuels" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{2EB137B5-7340-45C6-9737-9405E946FDDE}" name="OtherBiomass" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{A3E42E24-2C74-479B-8237-802C9B9CB3DA}" name="SolarThermal" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{DD456FC3-7F10-457D-BAC8-A6A4DB35B136}" name="Geothermal" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{6FA4DF38-8839-49A3-B7F1-200A0B4E3D59}" name="Other" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{EA1CA623-B22D-446A-9D77-C38F4239293D}" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[Electricity]:[Other]])</calculatedColumnFormula>
-    </tableColumn>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{261F110C-22A9-4D39-A42B-41118E257A2E}" name="Sector" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{AD7B012C-81C9-4E0D-99BC-82022917024C}" name="Subsector" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EAF1E991-C3E3-42FB-A84B-45684D439B73}" name="Year" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{A3B8CEB2-DB6E-4F43-8BBC-34129BBC978E}" name="Electricity" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A6C08ADB-2DD5-4F7A-8269-AA10D654F706}" name="HeatAndCooling" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B78948CE-B06B-4D3B-86B8-0C0DF61A5611}" name="NaturalGas" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{7CBDEA58-0D44-474F-AA13-729B62F546A9}" name="LPG" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{5F53BF7D-481A-4AFA-9AA3-4FB3F29D900E}" name="HeatingOil" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{22ED311C-09AA-455C-B2F9-D6A622F2B36B}" name="Diesel" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{1C82183D-CB7D-47E4-B7CC-AFDFEAD03466}" name="Gasoline" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{D0AE6067-46EB-4023-8280-99A4F9258389}" name="Lignite" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{44B17059-B493-4347-BE8E-21DC8A9B1D41}" name="HardCoal" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{781A2EC8-5515-4E05-A94D-F6A6B81E5659}" name="OtherFossilFuels" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{68F53842-BD7B-4DF3-929D-F14C7929AE33}" name="VegetableOil" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{69D8DF55-967B-4D7E-B7DB-DC3B805CEC00}" name="Biofuels" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{2EB137B5-7340-45C6-9737-9405E946FDDE}" name="OtherBiomass" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{A3E42E24-2C74-479B-8237-802C9B9CB3DA}" name="SolarThermal" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{DD456FC3-7F10-457D-BAC8-A6A4DB35B136}" name="Geothermal" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{6FA4DF38-8839-49A3-B7F1-200A0B4E3D59}" name="Other" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T162"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -1664,7 +1614,7 @@
     <col min="19" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1">
+    <row r="1" spans="1:19" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1722,16 +1672,13 @@
       <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>1990</v>
@@ -1781,17 +1728,13 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="T2" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>48121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="28.8">
+    </row>
+    <row r="3" spans="1:19" ht="28.8">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <v>1990</v>
@@ -1841,17 +1784,13 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>535086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>1990</v>
@@ -1901,17 +1840,13 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1755027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5">
         <v>1990</v>
@@ -1961,17 +1896,13 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>46541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>1990</v>
@@ -2021,17 +1952,13 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1442928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
         <v>1990</v>
@@ -2081,17 +2008,13 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5">
         <v>1990</v>
@@ -2141,17 +2064,13 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>99949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>1990</v>
@@ -2201,17 +2120,13 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>474292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>1990</v>
@@ -2261,17 +2176,13 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>1990</v>
@@ -2279,17 +2190,13 @@
       <c r="S11" s="3">
         <v>320218</v>
       </c>
-      <c r="T11" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>320218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5">
         <v>1990</v>
@@ -2297,17 +2204,13 @@
       <c r="S12" s="3">
         <v>70468</v>
       </c>
-      <c r="T12" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>70468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="13.8" customHeight="1">
+    </row>
+    <row r="13" spans="1:19" ht="13.8" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>1990</v>
@@ -2315,17 +2218,13 @@
       <c r="S13" s="3">
         <v>5800</v>
       </c>
-      <c r="T13" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="5">
         <v>2013</v>
@@ -2375,17 +2274,13 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>261962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="28.8">
+    </row>
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5">
         <v>2013</v>
@@ -2435,17 +2330,13 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="T15" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>852044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5">
         <v>2013</v>
@@ -2495,17 +2386,13 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="T16" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1540039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>2013</v>
@@ -2555,17 +2442,13 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="T17" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>33413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5">
         <v>2013</v>
@@ -2615,17 +2498,13 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="T18" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>513220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>2013</v>
@@ -2675,17 +2554,13 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>2013</v>
@@ -2735,17 +2610,13 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>82773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>2013</v>
@@ -2795,17 +2666,13 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="T21" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>924927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>2013</v>
@@ -2855,17 +2722,13 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>2013</v>
@@ -2873,17 +2736,13 @@
       <c r="S23" s="2">
         <v>4753</v>
       </c>
-      <c r="T23" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>2013</v>
@@ -2891,12 +2750,8 @@
       <c r="S24" s="2">
         <v>11988</v>
       </c>
-      <c r="T24" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>11988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2909,17 +2764,13 @@
       <c r="S25" s="2">
         <v>-6864</v>
       </c>
-      <c r="T25" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-6864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C26" s="5">
         <v>2015</v>
@@ -2969,17 +2820,13 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>107980</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="28.8">
+    </row>
+    <row r="27" spans="1:19" ht="28.8">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
@@ -3029,17 +2876,13 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>946615</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5">
         <v>2015</v>
@@ -3089,17 +2932,13 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="T28" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1320272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -3149,17 +2988,13 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="T29" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>26838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5">
         <v>2015</v>
@@ -3209,17 +3044,13 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="T30" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>610392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="5">
         <v>2015</v>
@@ -3269,17 +3100,13 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="T31" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="5">
         <v>2015</v>
@@ -3329,17 +3156,13 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="T32" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>79779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="5">
         <v>2015</v>
@@ -3389,17 +3212,13 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="T33" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>999510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="5">
         <v>2015</v>
@@ -3449,17 +3268,13 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="T34" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="5">
         <v>2015</v>
@@ -3467,17 +3282,13 @@
       <c r="S35" s="2">
         <v>4835</v>
       </c>
-      <c r="T35" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4835</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5">
         <v>2015</v>
@@ -3485,12 +3296,8 @@
       <c r="S36" s="2">
         <v>12102</v>
       </c>
-      <c r="T36" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
@@ -3503,17 +3310,13 @@
       <c r="S37" s="2">
         <v>-8792</v>
       </c>
-      <c r="T37" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8792</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C38" s="5">
         <v>2016</v>
@@ -3563,17 +3366,13 @@
       <c r="R38" s="1">
         <v>0</v>
       </c>
-      <c r="T38" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>105662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="28.8">
+    </row>
+    <row r="39" spans="1:19" ht="28.8">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5">
         <v>2016</v>
@@ -3623,17 +3422,13 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="T39" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1027187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="5">
         <v>2016</v>
@@ -3683,17 +3478,13 @@
       <c r="R40" s="1">
         <v>0</v>
       </c>
-      <c r="T40" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1499769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5">
         <v>2016</v>
@@ -3743,17 +3534,13 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="T41" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>24255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5">
         <v>2016</v>
@@ -3803,17 +3590,13 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="T42" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>623049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="5">
         <v>2016</v>
@@ -3863,17 +3646,13 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="T43" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="5">
         <v>2016</v>
@@ -3923,17 +3702,13 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="T44" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>76768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5">
         <v>2016</v>
@@ -3983,17 +3758,13 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="T45" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1039368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="5">
         <v>2016</v>
@@ -4043,17 +3814,13 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="T46" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="5">
         <v>2016</v>
@@ -4061,17 +3828,13 @@
       <c r="S47" s="2">
         <v>4306</v>
       </c>
-      <c r="T47" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="5">
         <v>2016</v>
@@ -4079,12 +3842,8 @@
       <c r="S48" s="2">
         <v>12161</v>
       </c>
-      <c r="T48" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="6" t="s">
         <v>19</v>
       </c>
@@ -4097,17 +3856,13 @@
       <c r="S49" s="2">
         <v>-8677</v>
       </c>
-      <c r="T49" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8677</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C50" s="5">
         <v>2017</v>
@@ -4157,17 +3912,13 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="T50" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>103207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="28.8">
+    </row>
+    <row r="51" spans="1:19" ht="28.8">
       <c r="A51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="5">
         <v>2017</v>
@@ -4217,17 +3968,13 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="T51" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1048468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="5">
         <v>2017</v>
@@ -4277,17 +4024,13 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="T52" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1452910</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" s="5">
         <v>2017</v>
@@ -4337,17 +4080,13 @@
       <c r="R53" s="1">
         <v>0</v>
       </c>
-      <c r="T53" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>23417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="5">
         <v>2017</v>
@@ -4397,17 +4136,13 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="T54" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>645948</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="5">
         <v>2017</v>
@@ -4457,17 +4192,13 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="T55" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5">
         <v>2017</v>
@@ -4517,17 +4248,13 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="T56" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>77375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="5">
         <v>2017</v>
@@ -4577,17 +4304,13 @@
       <c r="R57" s="1">
         <v>0</v>
       </c>
-      <c r="T57" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1087783</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="5">
         <v>2017</v>
@@ -4637,17 +4360,13 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="T58" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C59" s="5">
         <v>2017</v>
@@ -4655,17 +4374,13 @@
       <c r="S59" s="2">
         <v>6144</v>
       </c>
-      <c r="T59" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>6144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="5">
         <v>2017</v>
@@ -4673,12 +4388,8 @@
       <c r="S60" s="2">
         <v>12188</v>
       </c>
-      <c r="T60" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="6" t="s">
         <v>19</v>
       </c>
@@ -4691,17 +4402,13 @@
       <c r="S61" s="2">
         <v>-8684</v>
       </c>
-      <c r="T61" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C62" s="5">
         <v>2018</v>
@@ -4751,17 +4458,13 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="T62" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>112316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="28.8">
+    </row>
+    <row r="63" spans="1:19" ht="28.8">
       <c r="A63" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5">
         <v>2018</v>
@@ -4811,17 +4514,13 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="T63" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1105623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="5">
         <v>2018</v>
@@ -4871,17 +4570,13 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="T64" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1417181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="5">
         <v>2018</v>
@@ -4931,17 +4626,13 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="T65" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>22534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" s="5">
         <v>2018</v>
@@ -4991,17 +4682,13 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="T66" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>796955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="5">
         <v>2018</v>
@@ -5051,17 +4738,13 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="T67" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68" s="5">
         <v>2018</v>
@@ -5111,17 +4794,13 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="T68" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>76376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69" s="5">
         <v>2018</v>
@@ -5171,17 +4850,13 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="T69" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1126963</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="5">
         <v>2018</v>
@@ -5231,17 +4906,13 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="T70" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="5">
         <v>2018</v>
@@ -5249,17 +4920,13 @@
       <c r="S71" s="2">
         <v>7409</v>
       </c>
-      <c r="T71" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>7409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="5">
         <v>2018</v>
@@ -5267,12 +4934,8 @@
       <c r="S72" s="2">
         <v>12253</v>
       </c>
-      <c r="T72" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="6" t="s">
         <v>19</v>
       </c>
@@ -5285,17 +4948,13 @@
       <c r="S73" s="2">
         <v>-8250</v>
       </c>
-      <c r="T73" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C74" s="5">
         <v>2019</v>
@@ -5345,17 +5004,13 @@
       <c r="R74" s="1">
         <v>0</v>
       </c>
-      <c r="T74" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>110517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="28.8">
+    </row>
+    <row r="75" spans="1:19" ht="28.8">
       <c r="A75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="5">
         <v>2019</v>
@@ -5405,17 +5060,13 @@
       <c r="R75" s="1">
         <v>0</v>
       </c>
-      <c r="T75" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1125003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="5">
         <v>2019</v>
@@ -5465,17 +5116,13 @@
       <c r="R76" s="1">
         <v>0</v>
       </c>
-      <c r="T76" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1379350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="5">
         <v>2019</v>
@@ -5525,17 +5172,13 @@
       <c r="R77" s="1">
         <v>0</v>
       </c>
-      <c r="T77" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>25185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="5">
         <v>2019</v>
@@ -5585,17 +5228,13 @@
       <c r="R78" s="1">
         <v>0</v>
       </c>
-      <c r="T78" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>806824</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" s="5">
         <v>2019</v>
@@ -5645,17 +5284,13 @@
       <c r="R79" s="1">
         <v>0</v>
       </c>
-      <c r="T79" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="5">
         <v>2019</v>
@@ -5705,17 +5340,13 @@
       <c r="R80" s="1">
         <v>0</v>
       </c>
-      <c r="T80" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>77660</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="5">
         <v>2019</v>
@@ -5765,17 +5396,13 @@
       <c r="R81" s="1">
         <v>0</v>
       </c>
-      <c r="T81" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1158590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="5">
         <v>2019</v>
@@ -5825,17 +5452,13 @@
       <c r="R82" s="1">
         <v>0</v>
       </c>
-      <c r="T82" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3803</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" s="5">
         <v>2019</v>
@@ -5843,17 +5466,13 @@
       <c r="S83" s="2">
         <v>7435</v>
       </c>
-      <c r="T83" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>7435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="5">
         <v>2019</v>
@@ -5861,12 +5480,8 @@
       <c r="S84" s="2">
         <v>12322</v>
       </c>
-      <c r="T84" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="6" t="s">
         <v>19</v>
       </c>
@@ -5879,17 +5494,13 @@
       <c r="S85" s="2">
         <v>-8246</v>
       </c>
-      <c r="T85" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C86" s="5">
         <v>2020</v>
@@ -5939,17 +5550,13 @@
       <c r="R86" s="1">
         <v>0</v>
       </c>
-      <c r="T86" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>105638</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="28.8">
+    </row>
+    <row r="87" spans="1:19" ht="28.8">
       <c r="A87" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="5">
         <v>2020</v>
@@ -5999,17 +5606,13 @@
       <c r="R87" s="1">
         <v>0</v>
       </c>
-      <c r="T87" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>945457</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" s="5">
         <v>2020</v>
@@ -6059,17 +5662,13 @@
       <c r="R88" s="1">
         <v>0</v>
       </c>
-      <c r="T88" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1375325</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" s="5">
         <v>2020</v>
@@ -6119,17 +5718,13 @@
       <c r="R89" s="1">
         <v>0</v>
       </c>
-      <c r="T89" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>21284</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C90" s="5">
         <v>2020</v>
@@ -6179,17 +5774,13 @@
       <c r="R90" s="1">
         <v>0</v>
       </c>
-      <c r="T90" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>617862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91" s="5">
         <v>2020</v>
@@ -6239,17 +5830,13 @@
       <c r="R91" s="1">
         <v>0</v>
       </c>
-      <c r="T91" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92" s="5">
         <v>2020</v>
@@ -6299,17 +5886,13 @@
       <c r="R92" s="1">
         <v>0</v>
       </c>
-      <c r="T92" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>74696</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93" s="5">
         <v>2020</v>
@@ -6359,17 +5942,13 @@
       <c r="R93" s="1">
         <v>0</v>
       </c>
-      <c r="T93" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>937373</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="5">
         <v>2020</v>
@@ -6419,17 +5998,13 @@
       <c r="R94" s="1">
         <v>0</v>
       </c>
-      <c r="T94" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" s="5">
         <v>2020</v>
@@ -6437,17 +6012,13 @@
       <c r="S95" s="2">
         <v>10539</v>
       </c>
-      <c r="T95" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>10539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="5">
         <v>2020</v>
@@ -6455,12 +6026,8 @@
       <c r="S96" s="2">
         <v>12265</v>
       </c>
-      <c r="T96" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="6" t="s">
         <v>19</v>
       </c>
@@ -6473,17 +6040,13 @@
       <c r="S97" s="2">
         <v>-8756</v>
       </c>
-      <c r="T97" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-8756</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="C98" s="5">
         <v>2021</v>
@@ -6533,17 +6096,13 @@
       <c r="R98" s="1">
         <v>0</v>
       </c>
-      <c r="T98" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>104753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="28.8">
+    </row>
+    <row r="99" spans="1:19" ht="28.8">
       <c r="A99" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" s="5">
         <v>2021</v>
@@ -6593,17 +6152,13 @@
       <c r="R99" s="1">
         <v>0</v>
       </c>
-      <c r="T99" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>998713</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" s="5">
         <v>2021</v>
@@ -6653,17 +6208,13 @@
       <c r="R100" s="1">
         <v>0</v>
       </c>
-      <c r="T100" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1442454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" s="5">
         <v>2021</v>
@@ -6713,17 +6264,13 @@
       <c r="R101" s="1">
         <v>0</v>
       </c>
-      <c r="T101" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>17895</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" s="5">
         <v>2021</v>
@@ -6773,17 +6320,13 @@
       <c r="R102" s="1">
         <v>0</v>
       </c>
-      <c r="T102" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>601027</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C103" s="5">
         <v>2021</v>
@@ -6833,17 +6376,13 @@
       <c r="R103" s="1">
         <v>0</v>
       </c>
-      <c r="T103" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>6368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104" s="5">
         <v>2021</v>
@@ -6893,17 +6432,13 @@
       <c r="R104" s="1">
         <v>0</v>
       </c>
-      <c r="T104" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>69821</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105" s="5">
         <v>2021</v>
@@ -6953,17 +6488,13 @@
       <c r="R105" s="1">
         <v>0</v>
       </c>
-      <c r="T105" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>1228023</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C106" s="5">
         <v>2021</v>
@@ -7013,17 +6544,13 @@
       <c r="R106" s="1">
         <v>0</v>
       </c>
-      <c r="T106" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C107" s="5">
         <v>2021</v>
@@ -7031,17 +6558,13 @@
       <c r="S107" s="2">
         <v>12949</v>
       </c>
-      <c r="T107" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12949</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" s="5">
         <v>2021</v>
@@ -7049,12 +6572,8 @@
       <c r="S108" s="2">
         <v>12265</v>
       </c>
-      <c r="T108" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>12265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="6" t="s">
         <v>19</v>
       </c>
@@ -7067,21 +6586,17 @@
       <c r="S109" s="2">
         <v>-7736</v>
       </c>
-      <c r="T109" s="4">
-        <f>SUM(Table1[[#This Row],[Electricity]:[Other]])</f>
-        <v>-7736</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="14"/>
       <c r="B110" s="15"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:19">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:19">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
@@ -7585,20 +7100,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="868c7e15-d6ea-4d44-b97d-8cfe247ae624" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="868c7e15-d6ea-4d44-b97d-8cfe247ae624" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7621,6 +7136,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC119C0-983C-4899-9192-FEF1DA8C1463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{488A807F-F45B-477A-A62E-72C401F0C963}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -7635,12 +7158,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BC119C0-983C-4899-9192-FEF1DA8C1463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>